--- a/docs/Extension-CareConnect-RegistrationDetails-1.xlsx
+++ b/docs/Extension-CareConnect-RegistrationDetails-1.xlsx
@@ -316,7 +316,7 @@
     <t>Registration Type</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-RegistrationType-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-RegistrationType-1</t>
   </si>
   <si>
     <t>preferredBranchSurgery</t>
@@ -329,7 +329,7 @@
     <t>valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Location-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Location-1)
 </t>
   </si>
   <si>
@@ -339,7 +339,7 @@
     <t>Location of usual branch surgery.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-RegistrationDetails-1</t>
+    <t>https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-RegistrationDetails-1</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.91015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.76953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.60546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
